--- a/R-package/data/tmp/github/test/Excel_part_pass.xlsx
+++ b/R-package/data/tmp/github/test/Excel_part_pass.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="partInParts" sheetId="5" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>label</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>hasNoPartInfo</t>
+  </si>
+  <si>
+    <t>something;somethingElse</t>
   </si>
 </sst>
 </file>
